--- a/backend/web/template/TemplateDataSiswa.xlsx
+++ b/backend/web/template/TemplateDataSiswa.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hendro Prabowo\Documents\Template Excel Yayasan Soposurung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\yayasan_soposurung\backend\web\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="ANGKATAN XXIX" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ANGKATAN XXIX'!$A$2:$P$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ANGKATAN XXIX'!$B$3:$C$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$2:$P$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet 1'!$B$3:$C$121</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -284,10 +284,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +597,7 @@
   <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -624,22 +624,22 @@
     <row r="1" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
@@ -688,7 +688,7 @@
       <c r="P2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="38" t="s">
         <v>16</v>
       </c>
     </row>
